--- a/Parcial 2/tablas parcial 2.xlsx
+++ b/Parcial 2/tablas parcial 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
   <si>
     <t>Secuencial</t>
   </si>
@@ -152,6 +152,18 @@
   <si>
     <t>constante compartida</t>
   </si>
+  <si>
+    <t>Algoritmo</t>
+  </si>
+  <si>
+    <t>secuencial</t>
+  </si>
+  <si>
+    <t>Mem constante</t>
+  </si>
+  <si>
+    <t>Mem compartida</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +195,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +204,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,21 +263,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,6 +297,4420 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Tiempos secuencial-global</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28693744531933502"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$11:$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$12:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4552499999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3424000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7341650000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5120900000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24714875000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33706225000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memoria global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$11:$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$13:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0660000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5590000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1845000000000008E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.90595E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0951749999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5186249999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="311671784"/>
+        <c:axId val="311670216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="311671784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311670216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311670216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo (segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311671784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Tiempos </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t>secuencial-constante</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22912489063867017"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$11:$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$12:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4552499999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3424000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7341650000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5120900000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24714875000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33706225000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem constante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$11:$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0805000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4475000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2665000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7842000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6435999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0693500000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="328390720"/>
+        <c:axId val="328387976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="328390720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328387976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="328387976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo ( segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328390720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Tiempos secuencial-compartida</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$11:$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$12:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4552499999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3424000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7341650000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5120900000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24714875000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33706225000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem compartida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$11:$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.14E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3805000000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3470000000000015E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7655500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7305999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2476499999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="327758584"/>
+        <c:axId val="325787680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="327758584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325787680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325787680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo (segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327758584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Grafica de aceleracion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.792726679712978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.630514189379038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.188404911723381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.409504637037806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.567055493414301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.195225944522186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial constante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.220860370103331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.999591419816142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.928225576758763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.498654859320709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.201028057077494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.164984260173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial compartida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.491822429906538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.843940348666241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.432485505891151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.884200390813064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.720166107033556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.448422031543153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="314052576"/>
+        <c:axId val="314051008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="314052576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314051008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314051008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de veces aceleradas (X's)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314052576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>795337</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -547,2228 +4989,2333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="3"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>7.7980000000000002E-3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>9.3010000000000002E-3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1.9446000000000001E-2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>7.2804999999999995E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.34876099999999999</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0.25351299999999999</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>3.21E-4</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>4.95E-4</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>8.52E-4</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>3.6610000000000002E-3</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>1.7315000000000001E-2</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>1.2919E-2</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>5.4660000000000004E-3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>7.1729999999999997E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.7253000000000001E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>7.0195999999999995E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.34855599999999998</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.25829600000000003</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>3.1E-4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>3.5399999999999999E-4</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>2.8709999999999999E-3</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>1.5101E-2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>1.0921999999999999E-2</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="7">
         <f>B22/J22</f>
         <v>17.792726679712978</v>
       </c>
-      <c r="S3" s="11">
-        <f t="shared" ref="S3:V3" si="0">C22/K22</f>
+      <c r="S3" s="7">
+        <f t="shared" ref="S3:U3" si="0">C22/K22</f>
         <v>20.630514189379038</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="7">
         <f t="shared" si="0"/>
         <v>21.188404911723381</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="7">
         <f t="shared" si="0"/>
         <v>22.409504637037806</v>
       </c>
-      <c r="V3" s="11">
-        <f t="shared" ref="V3" si="1">F22/N22</f>
+      <c r="V3" s="7">
+        <f>G22/O22</f>
+        <v>22.567055493414301</v>
+      </c>
+      <c r="W3" s="7">
+        <f>F22/N22</f>
         <v>22.195225944522186</v>
-      </c>
-      <c r="W3" s="11">
-        <f t="shared" ref="W3" si="2">G22/O22</f>
-        <v>22.567055493414301</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>5.3550000000000004E-3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>7.5209999999999999E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.7316000000000002E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>6.5295000000000006E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.34227299999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.248061</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>3.0400000000000002E-4</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>8.1899999999999996E-4</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>2.8700000000000002E-3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>1.5095000000000001E-2</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>1.0919999999999999E-2</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="7">
         <f>B22/B46</f>
         <v>26.220860370103331</v>
       </c>
-      <c r="S4" s="11">
-        <f t="shared" ref="S4:W4" si="3">C22/C46</f>
+      <c r="S4" s="7">
+        <f t="shared" ref="S4:W4" si="1">C22/C46</f>
         <v>29.999591419816142</v>
       </c>
-      <c r="T4" s="11">
-        <f t="shared" si="3"/>
+      <c r="T4" s="7">
+        <f t="shared" si="1"/>
         <v>32.928225576758763</v>
       </c>
-      <c r="U4" s="11">
-        <f t="shared" si="3"/>
+      <c r="U4" s="7">
+        <f t="shared" si="1"/>
         <v>36.498654859320709</v>
       </c>
-      <c r="V4" s="11">
-        <f t="shared" si="3"/>
+      <c r="V4" s="7">
+        <f>G22/G46</f>
+        <v>37.201028057077494</v>
+      </c>
+      <c r="W4" s="7">
+        <f>F22/F46</f>
         <v>37.164984260173</v>
-      </c>
-      <c r="W4" s="11">
-        <f t="shared" si="3"/>
-        <v>37.201028057077494</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5.2459999999999998E-3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>7.5810000000000001E-3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.711E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>6.6191E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.34121400000000002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.24759900000000001</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>3.0499999999999999E-4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>8.1400000000000005E-4</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>2.8639999999999998E-3</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>1.5089999999999999E-2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>1.0911000000000001E-2</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="7">
         <f>B22/J46</f>
         <v>25.491822429906538</v>
       </c>
-      <c r="S5" s="11">
-        <f t="shared" ref="S5:W5" si="4">C22/K46</f>
+      <c r="S5" s="7">
+        <f t="shared" ref="S5:W5" si="2">C22/K46</f>
         <v>30.843940348666241</v>
       </c>
-      <c r="T5" s="11">
-        <f t="shared" si="4"/>
+      <c r="T5" s="7">
+        <f t="shared" si="2"/>
         <v>32.432485505891151</v>
       </c>
-      <c r="U5" s="11">
-        <f t="shared" si="4"/>
+      <c r="U5" s="7">
+        <f t="shared" si="2"/>
         <v>36.884200390813064</v>
       </c>
-      <c r="V5" s="11">
-        <f t="shared" si="4"/>
+      <c r="V5" s="7">
+        <f>G22/O46</f>
+        <v>36.720166107033556</v>
+      </c>
+      <c r="W5" s="7">
+        <f>F22/N46</f>
         <v>36.448422031543153</v>
-      </c>
-      <c r="W5" s="11">
-        <f t="shared" si="4"/>
-        <v>36.720166107033556</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>5.3940000000000004E-3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>7.3619999999999996E-3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.7101000000000002E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>6.4393000000000006E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.334206</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.24520600000000001</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>3.0400000000000002E-4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>3.48E-4</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>8.1899999999999996E-4</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>2.8670000000000002E-3</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>1.5094E-2</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>1.0913000000000001E-2</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="7">
         <f>J22/B46</f>
         <v>1.4736842105263157</v>
       </c>
-      <c r="S6" s="11">
-        <f t="shared" ref="S6:W6" si="5">K22/C46</f>
+      <c r="S6" s="7">
+        <f t="shared" ref="S6:W6" si="3">K22/C46</f>
         <v>1.4541368743615934</v>
       </c>
-      <c r="T6" s="11">
-        <f t="shared" si="5"/>
+      <c r="T6" s="7">
+        <f t="shared" si="3"/>
         <v>1.5540681667141365</v>
       </c>
-      <c r="U6" s="11">
-        <f t="shared" si="5"/>
+      <c r="U6" s="7">
+        <f t="shared" si="3"/>
         <v>1.6287131487501401</v>
       </c>
-      <c r="V6" s="11">
-        <f t="shared" si="5"/>
+      <c r="V6" s="7">
+        <f>O22/G46</f>
+        <v>1.6484661930278763</v>
+      </c>
+      <c r="W6" s="7">
+        <f>N22/F46</f>
         <v>1.6744584782812437</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" si="5"/>
-        <v>1.6484661930278763</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>5.4130000000000003E-3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>7.0689999999999998E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1.7180000000000001E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>6.4657000000000006E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.33949200000000002</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.24495400000000001</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>3.0499999999999999E-4</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>8.1700000000000002E-4</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>2.8649999999999999E-3</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>1.5096999999999999E-2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>1.0821000000000001E-2</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="7">
         <f>J22/J46</f>
         <v>1.4327102803738319</v>
       </c>
-      <c r="S7" s="11">
-        <f t="shared" ref="S7:W7" si="6">K22/K46</f>
+      <c r="S7" s="7">
+        <f t="shared" ref="S7:W7" si="4">K22/K46</f>
         <v>1.4950640621718123</v>
       </c>
-      <c r="T7" s="11">
-        <f t="shared" si="6"/>
+      <c r="T7" s="7">
+        <f t="shared" si="4"/>
         <v>1.530671404525902</v>
       </c>
-      <c r="U7" s="11">
-        <f t="shared" si="6"/>
+      <c r="U7" s="7">
+        <f t="shared" si="4"/>
         <v>1.6459177026988756</v>
       </c>
-      <c r="V7" s="11">
-        <f t="shared" si="6"/>
+      <c r="V7" s="7">
+        <f>O22/O46</f>
+        <v>1.62715805425965</v>
+      </c>
+      <c r="W7" s="7">
+        <f>N22/N46</f>
         <v>1.6421739577081744</v>
-      </c>
-      <c r="W7" s="11">
-        <f t="shared" si="6"/>
-        <v>1.62715805425965</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>5.3969999999999999E-3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7.4139999999999996E-3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1.7056000000000002E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>6.5675999999999998E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.33596300000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.23801</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>3.48E-4</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>8.1700000000000002E-4</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>2.8660000000000001E-3</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>1.5098E-2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>1.0817E-2</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="7">
         <f>B46/J46</f>
         <v>0.97219626168224316</v>
       </c>
-      <c r="S8" s="11">
-        <f t="shared" ref="S8:W8" si="7">C46/K46</f>
+      <c r="S8" s="7">
+        <f t="shared" ref="S8:W8" si="5">C46/K46</f>
         <v>1.0281453476160469</v>
       </c>
-      <c r="T8" s="11">
-        <f t="shared" si="7"/>
+      <c r="T8" s="7">
+        <f t="shared" si="5"/>
         <v>0.98494482887600499</v>
       </c>
-      <c r="U8" s="11">
-        <f t="shared" si="7"/>
+      <c r="U8" s="7">
+        <f t="shared" si="5"/>
         <v>1.0105632805641303</v>
       </c>
-      <c r="V8" s="11">
-        <f t="shared" si="7"/>
+      <c r="V8" s="7">
+        <f>G46/O46</f>
+        <v>0.98707396071672671</v>
+      </c>
+      <c r="W8" s="7">
+        <f>F46/N46</f>
         <v>0.98071942601633932</v>
-      </c>
-      <c r="W8" s="11">
-        <f t="shared" si="7"/>
-        <v>0.98707396071672671</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5.1879999999999999E-3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>7.3010000000000002E-3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1.6997999999999999E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>6.4368999999999996E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.34797699999999998</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.24328900000000001</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>3.0400000000000002E-4</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>3.48E-4</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>8.1499999999999997E-4</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>2.8639999999999998E-3</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>1.5093000000000001E-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>1.0815E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>5.4850000000000003E-3</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>7.2129999999999998E-3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1.721E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>6.5014000000000002E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.33111400000000002</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.248611</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>3.0299999999999999E-4</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>8.1899999999999996E-4</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>2.8679999999999999E-3</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>1.5089999999999999E-2</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>1.0817999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>5.313E-3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>7.4980000000000003E-3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1.7314E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>6.4722000000000002E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.33481</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.24435699999999999</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>3.4699999999999998E-4</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>8.1700000000000002E-4</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>2.8660000000000001E-3</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>1.5096999999999999E-2</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>1.0836999999999999E-2</v>
       </c>
-      <c r="Q11" s="13"/>
+      <c r="Q11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>5.1450000000000003E-3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>7.4250000000000002E-3</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1.7069999999999998E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>6.4394999999999994E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.330376</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0.248557</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>3.0499999999999999E-4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>3.4600000000000001E-4</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>8.1599999999999999E-4</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>2.8630000000000001E-3</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>1.5095000000000001E-2</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>1.0817999999999999E-2</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="7">
+        <v>5.4552499999999992E-3</v>
+      </c>
+      <c r="S12" s="7">
+        <v>7.3424000000000007E-3</v>
+      </c>
+      <c r="T12" s="7">
+        <v>1.7341650000000004E-2</v>
+      </c>
+      <c r="U12" s="7">
+        <v>6.5120900000000009E-2</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0.24714875000000003</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0.33706225000000001</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>5.3340000000000002E-3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>7.1500000000000001E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1.7264000000000002E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>6.3950000000000007E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.33707100000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>0.25118800000000002</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>3.0400000000000002E-4</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>8.1700000000000002E-4</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>2.8630000000000001E-3</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>1.5088000000000001E-2</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>1.0813E-2</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="7">
+        <v>3.0660000000000003E-4</v>
+      </c>
+      <c r="S13" s="7">
+        <v>3.5590000000000003E-4</v>
+      </c>
+      <c r="T13" s="7">
+        <v>8.1845000000000008E-4</v>
+      </c>
+      <c r="U13" s="7">
+        <v>2.90595E-3</v>
+      </c>
+      <c r="V13" s="7">
+        <v>1.0951749999999998E-2</v>
+      </c>
+      <c r="W13" s="7">
+        <v>1.5186249999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>5.4479999999999997E-3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>6.9870000000000002E-3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1.7361000000000001E-2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>6.4388000000000001E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.32585199999999997</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.24221200000000001</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>3.0400000000000002E-4</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>3.5E-4</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>8.1700000000000002E-4</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>2.8639999999999998E-3</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>1.5126000000000001E-2</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>1.0982E-2</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="7">
+        <v>2.0805000000000004E-4</v>
+      </c>
+      <c r="S14" s="7">
+        <v>2.4475000000000001E-4</v>
+      </c>
+      <c r="T14" s="7">
+        <v>5.2665000000000003E-4</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1.7842000000000001E-3</v>
+      </c>
+      <c r="V14" s="7">
+        <v>6.6435999999999995E-3</v>
+      </c>
+      <c r="W14" s="7">
+        <v>9.0693500000000003E-3</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>5.3369999999999997E-3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>6.999E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1.7343000000000001E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>6.3308000000000003E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.32958900000000002</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0.24249899999999999</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>3.21E-4</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>3.4699999999999998E-4</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>8.1499999999999997E-4</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>2.8670000000000002E-3</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>1.4966E-2</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>1.0817E-2</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="7">
+        <v>2.14E-4</v>
+      </c>
+      <c r="S15" s="7">
+        <v>2.3805000000000007E-4</v>
+      </c>
+      <c r="T15" s="7">
+        <v>5.3470000000000015E-4</v>
+      </c>
+      <c r="U15" s="7">
+        <v>1.7655500000000001E-3</v>
+      </c>
+      <c r="V15" s="7">
+        <v>6.7305999999999989E-3</v>
+      </c>
+      <c r="W15" s="7">
+        <v>9.2476499999999996E-3</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>5.1770000000000002E-3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>6.966E-3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1.7533E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>6.3707E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.33277400000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.243811</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>3.0299999999999999E-4</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>3.48E-4</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>8.1499999999999997E-4</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>2.8660000000000001E-3</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>1.4933E-2</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>1.0813E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>5.3660000000000001E-3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>6.999E-3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1.7319999999999999E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>6.3386999999999999E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0.33295999999999998</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>0.243423</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>3.0699999999999998E-4</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>3.48E-4</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>8.12E-4</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>2.862E-3</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>1.4957E-2</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>1.0810999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>5.3239999999999997E-3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>7.3540000000000003E-3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1.7297E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>6.3601000000000005E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0.33809</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>0.24889500000000001</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>3.0200000000000002E-4</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>8.1400000000000005E-4</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>2.8649999999999999E-3</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>1.0829E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>5.2589999999999998E-3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>7.1539999999999998E-3</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1.7076000000000001E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>6.4616000000000007E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.33710899999999999</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.25588499999999997</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>8.2100000000000001E-4</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>2.875E-3</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>1.5098E-2</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>1.0819E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5.3579999999999999E-3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>7.1419999999999999E-3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1.7207E-2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>6.3949000000000006E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.33354</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.24862300000000001</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>3.0699999999999998E-4</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>3.4600000000000001E-4</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>8.1800000000000004E-4</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>2.8670000000000002E-3</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>1.5096999999999999E-2</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>1.0824E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>5.3020000000000003E-3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>7.2389999999999998E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1.7378000000000001E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>6.3798999999999995E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.33951799999999999</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.24598600000000001</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>3.0499999999999999E-4</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>3.5E-4</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>8.1499999999999997E-4</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>2.8649999999999999E-3</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>1.5095000000000001E-2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>1.0815999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="8">
-        <f t="shared" ref="B22:G22" si="8">SUM(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21)/20</f>
+      <c r="B22" s="9">
+        <f t="shared" ref="B22:G22" si="6">SUM(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21)/20</f>
         <v>5.4552499999999992E-3</v>
       </c>
-      <c r="C22" s="8">
-        <f t="shared" si="8"/>
+      <c r="C22" s="9">
+        <f t="shared" si="6"/>
         <v>7.3424000000000007E-3</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="8"/>
+      <c r="D22" s="9">
+        <f t="shared" si="6"/>
         <v>1.7341650000000004E-2</v>
       </c>
-      <c r="E22" s="8">
-        <f t="shared" si="8"/>
+      <c r="E22" s="9">
+        <f t="shared" si="6"/>
         <v>6.5120900000000009E-2</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="8"/>
+      <c r="F22" s="9">
+        <f t="shared" si="6"/>
         <v>0.33706225000000001</v>
       </c>
-      <c r="G22" s="8">
-        <f t="shared" si="8"/>
+      <c r="G22" s="9">
+        <f t="shared" si="6"/>
         <v>0.24714875000000003</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="9">
-        <f t="shared" ref="J22:O22" si="9">SUM(J2:J21)/20</f>
+      <c r="J22" s="10">
+        <f t="shared" ref="J22:O22" si="7">SUM(J2:J21)/20</f>
         <v>3.0660000000000003E-4</v>
       </c>
-      <c r="K22" s="9">
-        <f t="shared" si="9"/>
+      <c r="K22" s="10">
+        <f t="shared" si="7"/>
         <v>3.5590000000000003E-4</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="9"/>
+      <c r="L22" s="10">
+        <f t="shared" si="7"/>
         <v>8.1845000000000008E-4</v>
       </c>
-      <c r="M22" s="9">
-        <f t="shared" si="9"/>
+      <c r="M22" s="10">
+        <f t="shared" si="7"/>
         <v>2.90595E-3</v>
       </c>
-      <c r="N22" s="9">
-        <f t="shared" si="9"/>
+      <c r="N22" s="10">
+        <f t="shared" si="7"/>
         <v>1.5186249999999998E-2</v>
       </c>
-      <c r="O22" s="9">
-        <f t="shared" si="9"/>
+      <c r="O22" s="10">
+        <f t="shared" si="7"/>
         <v>1.0951749999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>2.22E-4</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>3.7500000000000001E-4</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>5.5599999999999996E-4</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>2.5479999999999999E-3</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>1.1396999999999999E-2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>7.9880000000000003E-3</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>3.4200000000000002E-4</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>5.6700000000000001E-4</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>2.3579999999999999E-3</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>1.1542999999999999E-2</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>8.2290000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>2.12E-4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>2.4399999999999999E-4</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>1.7539999999999999E-3</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>9.0349999999999996E-3</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>6.5839999999999996E-3</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>2.1800000000000001E-4</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>2.42E-4</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>5.3700000000000004E-4</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>1.7329999999999999E-3</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>9.1549999999999999E-3</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>6.6559999999999996E-3</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>2.0599999999999999E-4</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>2.3900000000000001E-4</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>5.2899999999999996E-4</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>1.7470000000000001E-3</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>9.0299999999999998E-3</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>6.5839999999999996E-3</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>2.14E-4</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>2.3499999999999999E-4</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>5.3399999999999997E-4</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>1.7340000000000001E-3</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>9.2160000000000002E-3</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>6.6499999999999997E-3</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>2.05E-4</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>5.2400000000000005E-4</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>1.743E-3</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>9.0209999999999995E-3</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>6.5669999999999999E-3</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="4"/>
+      <c r="I29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>2.14E-4</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>2.31E-4</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>5.3300000000000005E-4</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>1.735E-3</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>9.1599999999999997E-3</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>6.646E-3</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>2.05E-4</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>5.2599999999999999E-4</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>1.737E-3</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>9.0229999999999998E-3</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>6.5649999999999997E-3</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>2.13E-4</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>2.31E-4</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>5.3300000000000005E-4</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>1.732E-3</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>9.1489999999999991E-3</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>6.6540000000000002E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>2.04E-4</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>5.2400000000000005E-4</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>1.743E-3</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>9.0390000000000002E-3</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>6.5630000000000003E-3</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>2.13E-4</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>2.31E-4</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>5.3300000000000005E-4</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>9.1579999999999995E-3</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>6.6439999999999997E-3</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>2.05E-4</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>5.2400000000000005E-4</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>1.743E-3</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>9.0229999999999998E-3</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>6.5690000000000002E-3</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>2.1699999999999999E-4</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>2.32E-4</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>1.7329999999999999E-3</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>9.1430000000000001E-3</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>6.6579999999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>2.1100000000000001E-4</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>2.3900000000000001E-4</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>5.2400000000000005E-4</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>1.743E-3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>9.0279999999999996E-3</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>6.5789999999999998E-3</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>2.13E-4</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>2.41E-4</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <v>5.2899999999999996E-4</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <v>1.7309999999999999E-3</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>9.1470000000000006E-3</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <v>6.6169999999999996E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>2.05E-4</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>1.7520000000000001E-3</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>9.0119999999999992E-3</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>6.5680000000000001E-3</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>2.12E-4</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <v>5.3899999999999998E-4</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <v>1.7279999999999999E-3</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <v>9.1529999999999997E-3</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <v>6.6519999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2.05E-4</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>1.745E-3</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>9.0320000000000001E-3</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>6.5729999999999998E-3</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6" t="s">
+      <c r="H35" s="4"/>
+      <c r="I35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <v>2.14E-4</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>2.32E-4</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <v>5.31E-4</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>9.1570000000000002E-3</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <v>6.659E-3</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>2.0599999999999999E-4</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>2.33E-4</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>1.7440000000000001E-3</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>9.0299999999999998E-3</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>6.5729999999999998E-3</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6" t="s">
+      <c r="H36" s="4"/>
+      <c r="I36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
         <v>2.12E-4</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <v>2.2900000000000001E-4</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="3">
         <v>5.44E-4</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="3">
         <v>1.75E-3</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <v>9.1640000000000003E-3</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="3">
         <v>6.6519999999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>2.0799999999999999E-4</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>5.3899999999999998E-4</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>1.7440000000000001E-3</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>9.0259999999999993E-3</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>6.5640000000000004E-3</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6" t="s">
+      <c r="H37" s="4"/>
+      <c r="I37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <v>2.12E-4</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <v>2.31E-4</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="3">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <v>1.735E-3</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>9.1570000000000002E-3</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="2">
         <v>6.6569999999999997E-3</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>2.0900000000000001E-4</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>1.745E-3</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>9.0329999999999994E-3</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>6.5680000000000001E-3</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
         <v>2.13E-4</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <v>2.33E-4</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <v>5.3200000000000003E-4</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <v>9.1760000000000001E-3</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <v>6.6480000000000003E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>2.0699999999999999E-4</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>1.7440000000000001E-3</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>9.0189999999999992E-3</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>6.5690000000000002E-3</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6" t="s">
+      <c r="H39" s="4"/>
+      <c r="I39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
         <v>2.12E-4</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <v>2.2900000000000001E-4</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="3">
         <v>1.7329999999999999E-3</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <v>9.1509999999999994E-3</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
         <v>6.6569999999999997E-3</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>2.0799999999999999E-4</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>5.22E-4</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>1.74E-3</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>9.0279999999999996E-3</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>6.5669999999999999E-3</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6" t="s">
+      <c r="H40" s="4"/>
+      <c r="I40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>2.13E-4</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <v>2.31E-4</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="3">
         <v>5.31E-4</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="3">
         <v>1.7329999999999999E-3</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <v>9.1540000000000007E-3</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <v>6.6530000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>2.0599999999999999E-4</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>1.7440000000000001E-3</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>8.0319999999999992E-3</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>6.5820000000000002E-3</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6" t="s">
+      <c r="H41" s="4"/>
+      <c r="I41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <v>2.12E-4</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="3">
         <v>5.31E-4</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="3">
         <v>1.7340000000000001E-3</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <v>9.1500000000000001E-3</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="3">
         <v>6.6579999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>2.0900000000000001E-4</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>5.2400000000000005E-4</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>1.7420000000000001E-3</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>8.9119999999999998E-3</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>6.5709999999999996E-3</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6" t="s">
+      <c r="H42" s="4"/>
+      <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <v>2.12E-4</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="3">
         <v>5.3300000000000005E-4</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="3">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="3">
         <v>6.6519999999999999E-3</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>2.0900000000000001E-4</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>5.22E-4</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>1.74E-3</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>8.8839999999999995E-3</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>6.5690000000000002E-3</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
         <v>2.12E-4</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <v>2.31E-4</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="3">
         <v>5.3300000000000005E-4</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="3">
         <v>1.73E-3</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <v>9.0130000000000002E-3</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <v>6.6569999999999997E-3</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>2.0900000000000001E-4</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>5.22E-4</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>1.7420000000000001E-3</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>8.8859999999999998E-3</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <v>6.5680000000000001E-3</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6" t="s">
+      <c r="H44" s="4"/>
+      <c r="I44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
         <v>2.1100000000000001E-4</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>2.31E-4</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="3">
         <v>5.3399999999999997E-4</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="3">
         <v>1.735E-3</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="3">
         <v>9.0080000000000004E-3</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="3">
         <v>6.6610000000000003E-3</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>2.3900000000000001E-4</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>1.7440000000000001E-3</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>8.8970000000000004E-3</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>6.6010000000000001E-3</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="6" t="s">
+      <c r="H45" s="4"/>
+      <c r="I45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <v>2.13E-4</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="3">
         <v>2.32E-4</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="3">
         <v>5.3300000000000005E-4</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="3">
         <v>1.7329999999999999E-3</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="3">
         <v>8.9990000000000001E-3</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="3">
         <v>6.6519999999999999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="9">
-        <f t="shared" ref="B46:G46" si="10">SUM(B26:B45)/20</f>
+      <c r="B46" s="10">
+        <f t="shared" ref="B46:G46" si="8">SUM(B26:B45)/20</f>
         <v>2.0805000000000004E-4</v>
       </c>
-      <c r="C46" s="9">
-        <f t="shared" si="10"/>
+      <c r="C46" s="10">
+        <f t="shared" si="8"/>
         <v>2.4475000000000001E-4</v>
       </c>
-      <c r="D46" s="9">
-        <f t="shared" si="10"/>
+      <c r="D46" s="10">
+        <f t="shared" si="8"/>
         <v>5.2665000000000003E-4</v>
       </c>
-      <c r="E46" s="9">
-        <f t="shared" si="10"/>
+      <c r="E46" s="10">
+        <f t="shared" si="8"/>
         <v>1.7842000000000001E-3</v>
       </c>
-      <c r="F46" s="9">
-        <f t="shared" si="10"/>
+      <c r="F46" s="10">
+        <f t="shared" si="8"/>
         <v>9.0693500000000003E-3</v>
       </c>
-      <c r="G46" s="9">
-        <f t="shared" si="10"/>
+      <c r="G46" s="10">
+        <f t="shared" si="8"/>
         <v>6.6435999999999995E-3</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="4"/>
+      <c r="I46" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="9">
-        <f t="shared" ref="J46:O46" si="11">SUM(J26:J45)/20</f>
+      <c r="J46" s="10">
+        <f t="shared" ref="J46:O46" si="9">SUM(J26:J45)/20</f>
         <v>2.14E-4</v>
       </c>
-      <c r="K46" s="9">
-        <f t="shared" si="11"/>
+      <c r="K46" s="10">
+        <f t="shared" si="9"/>
         <v>2.3805000000000007E-4</v>
       </c>
-      <c r="L46" s="9">
-        <f t="shared" si="11"/>
+      <c r="L46" s="10">
+        <f t="shared" si="9"/>
         <v>5.3470000000000015E-4</v>
       </c>
-      <c r="M46" s="9">
-        <f t="shared" si="11"/>
+      <c r="M46" s="10">
+        <f t="shared" si="9"/>
         <v>1.7655500000000001E-3</v>
       </c>
-      <c r="N46" s="9">
-        <f t="shared" si="11"/>
+      <c r="N46" s="10">
+        <f t="shared" si="9"/>
         <v>9.2476499999999996E-3</v>
       </c>
-      <c r="O46" s="9">
-        <f t="shared" si="11"/>
+      <c r="O46" s="10">
+        <f t="shared" si="9"/>
         <v>6.7305999999999989E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Parcial 2/tablas parcial 2.xlsx
+++ b/Parcial 2/tablas parcial 2.xlsx
@@ -553,11 +553,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311671784"/>
-        <c:axId val="311670216"/>
+        <c:axId val="310482744"/>
+        <c:axId val="310484344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311671784"/>
+        <c:axId val="310482744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +600,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311670216"/>
+        <c:crossAx val="310484344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311670216"/>
+        <c:axId val="310484344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +715,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311671784"/>
+        <c:crossAx val="310482744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1055,11 +1055,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328390720"/>
-        <c:axId val="328387976"/>
+        <c:axId val="310484736"/>
+        <c:axId val="310483168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328390720"/>
+        <c:axId val="310484736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1102,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328387976"/>
+        <c:crossAx val="310483168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1110,7 +1110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328387976"/>
+        <c:axId val="310483168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1217,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328390720"/>
+        <c:crossAx val="310484736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,11 +1545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="327758584"/>
-        <c:axId val="325787680"/>
+        <c:axId val="310967936"/>
+        <c:axId val="310967152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="327758584"/>
+        <c:axId val="310967936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1592,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325787680"/>
+        <c:crossAx val="310967152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325787680"/>
+        <c:axId val="310967152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1707,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327758584"/>
+        <c:crossAx val="310967936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2116,11 +2116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="314052576"/>
-        <c:axId val="314051008"/>
+        <c:axId val="310969896"/>
+        <c:axId val="310969112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="314052576"/>
+        <c:axId val="310969896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2163,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314051008"/>
+        <c:crossAx val="310969112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +2171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314051008"/>
+        <c:axId val="310969112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2283,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314052576"/>
+        <c:crossAx val="310969896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4592,16 +4592,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4622,16 +4622,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>795337</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4652,16 +4652,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>776287</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4682,16 +4682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>795337</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4978,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5223,7 +5223,7 @@
         <v>26.220860370103331</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" ref="S4:W4" si="1">C22/C46</f>
+        <f t="shared" ref="S4:U4" si="1">C22/C46</f>
         <v>29.999591419816142</v>
       </c>
       <c r="T4" s="7">
@@ -5295,7 +5295,7 @@
         <v>25.491822429906538</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" ref="S5:W5" si="2">C22/K46</f>
+        <f t="shared" ref="S5:U5" si="2">C22/K46</f>
         <v>30.843940348666241</v>
       </c>
       <c r="T5" s="7">
@@ -5367,7 +5367,7 @@
         <v>1.4736842105263157</v>
       </c>
       <c r="S6" s="7">
-        <f t="shared" ref="S6:W6" si="3">K22/C46</f>
+        <f t="shared" ref="S6:U6" si="3">K22/C46</f>
         <v>1.4541368743615934</v>
       </c>
       <c r="T6" s="7">
@@ -5439,7 +5439,7 @@
         <v>1.4327102803738319</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" ref="S7:W7" si="4">K22/K46</f>
+        <f t="shared" ref="S7:U7" si="4">K22/K46</f>
         <v>1.4950640621718123</v>
       </c>
       <c r="T7" s="7">
@@ -5511,7 +5511,7 @@
         <v>0.97219626168224316</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" ref="S8:W8" si="5">C46/K46</f>
+        <f t="shared" ref="S8:U8" si="5">C46/K46</f>
         <v>1.0281453476160469</v>
       </c>
       <c r="T8" s="7">

--- a/Parcial 2/tablas parcial 2.xlsx
+++ b/Parcial 2/tablas parcial 2.xlsx
@@ -553,11 +553,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="310482744"/>
-        <c:axId val="310484344"/>
+        <c:axId val="140247584"/>
+        <c:axId val="140248368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310482744"/>
+        <c:axId val="140247584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +600,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310484344"/>
+        <c:crossAx val="140248368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310484344"/>
+        <c:axId val="140248368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +715,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310482744"/>
+        <c:crossAx val="140247584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1055,11 +1055,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="310484736"/>
-        <c:axId val="310483168"/>
+        <c:axId val="140249152"/>
+        <c:axId val="140249544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310484736"/>
+        <c:axId val="140249152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1102,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310483168"/>
+        <c:crossAx val="140249544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1110,7 +1110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310483168"/>
+        <c:axId val="140249544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1217,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310484736"/>
+        <c:crossAx val="140249152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,11 +1545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="310967936"/>
-        <c:axId val="310967152"/>
+        <c:axId val="140247976"/>
+        <c:axId val="110189968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310967936"/>
+        <c:axId val="140247976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1592,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310967152"/>
+        <c:crossAx val="110189968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310967152"/>
+        <c:axId val="110189968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1707,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310967936"/>
+        <c:crossAx val="140247976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2116,11 +2116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="310969896"/>
-        <c:axId val="310969112"/>
+        <c:axId val="110189576"/>
+        <c:axId val="110190360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310969896"/>
+        <c:axId val="110189576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2163,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310969112"/>
+        <c:crossAx val="110190360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +2171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310969112"/>
+        <c:axId val="110190360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2283,613 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310969896"/>
+        <c:crossAx val="110189576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Aceleraciones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.792726679712978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.630514189379038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.188404911723381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.409504637037806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.567055493414301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.195225944522186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial constante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.220860370103331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.999591419816142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.928225576758763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.498654859320709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.201028057077494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.164984260173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>secuencial compartida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>img1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>img2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>img3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>img4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>img6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>img5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.491822429906538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.843940348666241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.432485505891151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.884200390813064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.720166107033556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.448422031543153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="332848064"/>
+        <c:axId val="332849240"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="332848064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332849240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="332849240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Cantidad de veces</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> aceleradas(X's)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332848064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2524,6 +3130,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4556,6 +5202,500 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4710,6 +5850,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4979,7 +6149,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="Q2" sqref="Q2:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
